--- a/data/Relevé.xlsx
+++ b/data/Relevé.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuille1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Feuille" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -179,7 +179,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -247,11 +247,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -384,7 +379,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -462,10 +457,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -566,11 +557,11 @@
   </sheetPr>
   <dimension ref="D1:K84"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O27" activeCellId="0" sqref="O27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.37"/>
@@ -580,8 +571,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="18.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="18.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="16.02"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="257" min="13" style="1" width="11.51"/>
   </cols>
@@ -865,7 +856,7 @@
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
-      <c r="J23" s="20" t="s">
+      <c r="J23" s="19" t="s">
         <v>21</v>
       </c>
       <c r="K23" s="19"/>
@@ -878,55 +869,55 @@
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
-      <c r="J24" s="20" t="s">
+      <c r="J24" s="19" t="s">
         <v>21</v>
       </c>
       <c r="K24" s="19"/>
     </row>
     <row r="25" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E25" s="8"/>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21" t="s">
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="K25" s="21"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21" t="s">
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="K26" s="21"/>
+      <c r="K26" s="20"/>
     </row>
     <row r="27" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21" t="s">
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="K27" s="21"/>
+      <c r="K27" s="20"/>
     </row>
     <row r="28" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
     </row>
     <row r="29" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F29" s="12" t="s">
@@ -942,171 +933,171 @@
       <c r="F30" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
       <c r="K30" s="17"/>
     </row>
     <row r="31" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21" t="s">
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K31" s="21"/>
+      <c r="K31" s="20"/>
     </row>
     <row r="32" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21" t="s">
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="K32" s="21"/>
+      <c r="K32" s="20"/>
     </row>
     <row r="33" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21" t="s">
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="K33" s="21"/>
+      <c r="K33" s="20"/>
     </row>
     <row r="34" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21" t="s">
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="K34" s="21"/>
+      <c r="K34" s="20"/>
     </row>
     <row r="35" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21" t="s">
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K35" s="21"/>
+      <c r="K35" s="20"/>
     </row>
     <row r="36" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F36" s="21" t="s">
+      <c r="F36" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21" t="s">
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K36" s="21"/>
+      <c r="K36" s="20"/>
     </row>
     <row r="37" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F37" s="21" t="s">
+      <c r="F37" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21" t="s">
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="K37" s="21"/>
+      <c r="K37" s="20"/>
     </row>
     <row r="38" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F38" s="21" t="s">
+      <c r="F38" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21" t="s">
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K38" s="21"/>
+      <c r="K38" s="20"/>
     </row>
     <row r="39" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F39" s="21" t="s">
+      <c r="F39" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21" t="s">
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K39" s="21"/>
+      <c r="K39" s="20"/>
     </row>
     <row r="40" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F40" s="21" t="s">
+      <c r="F40" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21" t="s">
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K40" s="21"/>
+      <c r="K40" s="20"/>
     </row>
     <row r="41" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F41" s="21" t="s">
+      <c r="F41" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21" t="s">
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="K41" s="21"/>
+      <c r="K41" s="20"/>
     </row>
     <row r="42" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F42" s="21" t="s">
+      <c r="F42" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21" t="s">
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="K42" s="21"/>
+      <c r="K42" s="20"/>
     </row>
     <row r="43" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
     </row>
     <row r="44" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F44" s="0"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
     </row>
     <row r="45" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F45" s="12" t="s">
@@ -1129,258 +1120,258 @@
       <c r="K46" s="17"/>
     </row>
     <row r="47" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F47" s="24" t="s">
+      <c r="F47" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21" t="s">
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K47" s="21"/>
+      <c r="K47" s="20"/>
     </row>
     <row r="48" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F48" s="21" t="s">
+      <c r="F48" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21" t="s">
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="K48" s="21"/>
+      <c r="K48" s="20"/>
     </row>
     <row r="49" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F49" s="21" t="s">
+      <c r="F49" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21" t="s">
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="K49" s="21"/>
+      <c r="K49" s="20"/>
     </row>
     <row r="50" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F50" s="21" t="s">
+      <c r="F50" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21" t="s">
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K50" s="21"/>
+      <c r="K50" s="20"/>
     </row>
     <row r="51" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F51" s="21" t="s">
+      <c r="F51" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21" t="s">
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K51" s="21"/>
+      <c r="K51" s="20"/>
     </row>
     <row r="52" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F52" s="21" t="s">
+      <c r="F52" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21" t="s">
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K52" s="21"/>
+      <c r="K52" s="20"/>
     </row>
     <row r="53" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F53" s="21" t="s">
+      <c r="F53" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21" t="s">
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="K53" s="21"/>
+      <c r="K53" s="20"/>
     </row>
     <row r="54" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F54" s="21" t="s">
+      <c r="F54" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21" t="s">
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="K54" s="21"/>
+      <c r="K54" s="20"/>
     </row>
     <row r="55" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F55" s="21" t="s">
+      <c r="F55" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21" t="s">
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="K55" s="21"/>
+      <c r="K55" s="20"/>
     </row>
     <row r="56" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F56" s="21" t="s">
+      <c r="F56" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21" t="s">
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K56" s="21"/>
+      <c r="K56" s="20"/>
     </row>
     <row r="57" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F57" s="21" t="s">
+      <c r="F57" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21" t="s">
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K57" s="21"/>
+      <c r="K57" s="20"/>
     </row>
     <row r="58" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F58" s="21" t="s">
+      <c r="F58" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="21" t="s">
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="K58" s="21"/>
+      <c r="K58" s="20"/>
     </row>
     <row r="59" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
     </row>
     <row r="60" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="22"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
     </row>
     <row r="61" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="22"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
     </row>
     <row r="62" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="22"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
     </row>
     <row r="63" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
     </row>
     <row r="64" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
     </row>
     <row r="65" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="22"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
     </row>
     <row r="66" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="22"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
     </row>
     <row r="67" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="22"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
     </row>
     <row r="68" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="22"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
     </row>
     <row r="69" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="22"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
     </row>
     <row r="70" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="22"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
     </row>
     <row r="71" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="22"/>
-      <c r="J71" s="22"/>
-      <c r="K71" s="22"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
     </row>
     <row r="72" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
-      <c r="K72" s="22"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data/Relevé.xlsx
+++ b/data/Relevé.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="81">
   <si>
     <t xml:space="preserve">Université de Poitiers</t>
   </si>
@@ -34,7 +34,7 @@
     <t xml:space="preserve">M.Nom Prenom</t>
   </si>
   <si>
-    <t xml:space="preserve">Formation:BUT Réseaux et Télécommunications – version 2022 semestre 1 et 2</t>
+    <t xml:space="preserve">Formation : BUT Réseaux et Télécommunications – version 2022 semestre 1 et 2</t>
   </si>
   <si>
     <t xml:space="preserve">Année scolaire : 2022 – 2023</t>
@@ -178,6 +178,51 @@
     <t xml:space="preserve">SEMESTRE 2</t>
   </si>
   <si>
+    <t xml:space="preserve">R2.01 Technologie de l'Internet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2.02 Administration système et fondamentaux de la virtualisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2.03 Bases des services réseaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2.04 Initiation à la téléphonie d'entreprise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2.05 Signaux et Systèmes pour les transmissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2.06 Numérisation de l'information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2.07 Sources de données</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2.09 Initiation au développement Web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2.10 Anglais technique 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2.11 Expression-Culture-Communication Professionnelles : Renforcement des techniques de communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2.12 Projet Personnel et Professionnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2.13 Mathématiques des systèmes numériques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2.14 Analyse mathématique des signaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2.15 Mathématiques : renforcement 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">SAE2.01 Construire un réseau informatique pour une petite structure</t>
   </si>
   <si>
@@ -193,19 +238,31 @@
     <t xml:space="preserve">PORTFOLIO Demarche Portfolio</t>
   </si>
   <si>
+    <t xml:space="preserve">8.0</t>
+  </si>
+  <si>
     <t xml:space="preserve">SAE2.02 Mesurer et caractériser un signal ou un système</t>
   </si>
   <si>
     <t xml:space="preserve">23.0</t>
   </si>
   <si>
-    <t xml:space="preserve">BLALBA</t>
+    <t xml:space="preserve">R2.08 Analyse et traitement de données structurées</t>
   </si>
   <si>
     <t xml:space="preserve">SAE2.03 Mettre en place une solution informatique pour l’entreprise</t>
   </si>
   <si>
     <t xml:space="preserve">16.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moyenne du S2 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moyenne générale :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decision du jury :</t>
   </si>
 </sst>
 </file>
@@ -267,6 +324,11 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="26"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -298,15 +360,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF729FCF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,7 +371,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFF5CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -331,8 +386,14 @@
         <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF5CE"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -424,20 +485,6 @@
       <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="hair"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -470,7 +517,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -479,8 +526,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -491,135 +538,143 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -654,7 +709,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFFFF5CE"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -702,60 +757,60 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D1:K153"/>
+  <dimension ref="D1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C108" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I120" activeCellId="0" sqref="I120"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A113" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I143" activeCellId="0" sqref="I143:I144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.37"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="176.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="152.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="27.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="18.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="16.02"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="257" min="13" style="1" width="11.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="257" min="13" style="1" width="11.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F1" s="2"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E4" s="5"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -764,18 +819,18 @@
       <c r="K4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E5" s="6"/>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="9"/>
       <c r="H5" s="3"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E6" s="6"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
@@ -786,7 +841,7 @@
       <c r="K6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E7" s="6"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="3" t="s">
         <v>5</v>
       </c>
@@ -797,7 +852,7 @@
       <c r="K7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="8"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="4"/>
@@ -806,1167 +861,1195 @@
     </row>
     <row r="9" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="0"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="11"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="12"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="12"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="13" t="s">
+      <c r="D11" s="14"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="12"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="16" t="s">
+      <c r="D12" s="14"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="12"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="18" t="s">
+      <c r="D13" s="14"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="12"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21" t="s">
+      <c r="D14" s="14"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="12"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="12"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21" t="s">
+      <c r="D16" s="14"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
     </row>
     <row r="17" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="12"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21" t="s">
+      <c r="D17" s="14"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
     </row>
     <row r="18" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="12"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21" t="s">
+      <c r="D18" s="14"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
     </row>
     <row r="19" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="12"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="12"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21" t="s">
+      <c r="D20" s="14"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
     </row>
     <row r="21" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="12"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21" t="s">
+      <c r="D21" s="14"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E22" s="20"/>
-      <c r="F22" s="21" t="s">
+      <c r="E22" s="23"/>
+      <c r="F22" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
     </row>
     <row r="23" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E23" s="20"/>
-      <c r="F23" s="21" t="s">
+      <c r="E23" s="23"/>
+      <c r="F23" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
     </row>
     <row r="24" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E24" s="20"/>
-      <c r="F24" s="21" t="s">
+      <c r="E24" s="23"/>
+      <c r="F24" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
     </row>
     <row r="25" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E25" s="9"/>
-      <c r="F25" s="22" t="s">
+      <c r="E25" s="11"/>
+      <c r="F25" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
     </row>
     <row r="26" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
     </row>
     <row r="27" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
     </row>
     <row r="28" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
     </row>
     <row r="29" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="24"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="15"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="18"/>
     </row>
     <row r="30" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="15"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="18"/>
     </row>
     <row r="31" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I31" s="15"/>
+      <c r="I31" s="18"/>
     </row>
     <row r="32" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="17"/>
-      <c r="I32" s="15"/>
+      <c r="G32" s="20"/>
+      <c r="I32" s="18"/>
     </row>
     <row r="33" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="19"/>
-      <c r="I33" s="15"/>
+      <c r="G33" s="22"/>
+      <c r="I33" s="18"/>
     </row>
     <row r="34" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F34" s="22" t="s">
+      <c r="F34" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="G34" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="15"/>
+      <c r="I34" s="18"/>
     </row>
     <row r="35" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F35" s="22" t="s">
+      <c r="F35" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G35" s="22" t="s">
+      <c r="G35" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I35" s="15"/>
+      <c r="I35" s="18"/>
     </row>
     <row r="36" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F36" s="22" t="s">
+      <c r="F36" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="22" t="s">
+      <c r="G36" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="I36" s="15"/>
+      <c r="I36" s="18"/>
     </row>
     <row r="37" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F37" s="22" t="s">
+      <c r="F37" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G37" s="22" t="s">
+      <c r="G37" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
     </row>
     <row r="38" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F38" s="22" t="s">
+      <c r="F38" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G38" s="22" t="s">
+      <c r="G38" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
     </row>
     <row r="39" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F39" s="22" t="s">
+      <c r="F39" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="22" t="s">
+      <c r="G39" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
     </row>
     <row r="40" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F40" s="22" t="s">
+      <c r="F40" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="22" t="s">
+      <c r="G40" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
     </row>
     <row r="41" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F41" s="22" t="s">
+      <c r="F41" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G41" s="22" t="s">
+      <c r="G41" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
     </row>
     <row r="42" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F42" s="22" t="s">
+      <c r="F42" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="G42" s="22" t="s">
+      <c r="G42" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
     </row>
     <row r="43" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F43" s="22" t="s">
+      <c r="F43" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="G43" s="22" t="s">
+      <c r="G43" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
     </row>
     <row r="44" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F44" s="22" t="s">
+      <c r="F44" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G44" s="22" t="s">
+      <c r="G44" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
     </row>
     <row r="45" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F45" s="22" t="s">
+      <c r="F45" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G45" s="22" t="s">
+      <c r="G45" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
     </row>
     <row r="46" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G46" s="17"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
     </row>
     <row r="47" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F47" s="23" t="s">
+      <c r="F47" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G47" s="24"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
     </row>
     <row r="48" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
     </row>
     <row r="49" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F49" s="13" t="s">
+      <c r="F49" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G49" s="14" t="s">
+      <c r="G49" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
     </row>
     <row r="50" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F50" s="16" t="s">
+      <c r="F50" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="G50" s="17"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
     </row>
     <row r="51" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F51" s="18" t="s">
+      <c r="F51" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G51" s="19"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
     </row>
     <row r="52" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F52" s="26" t="s">
+      <c r="F52" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G52" s="22" t="s">
+      <c r="G52" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
     </row>
     <row r="53" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F53" s="22" t="s">
+      <c r="F53" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G53" s="22" t="s">
+      <c r="G53" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
     </row>
     <row r="54" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F54" s="22" t="s">
+      <c r="F54" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="G54" s="22" t="s">
+      <c r="G54" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
     </row>
     <row r="55" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F55" s="22" t="s">
+      <c r="F55" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="G55" s="22" t="s">
+      <c r="G55" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
     </row>
     <row r="56" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F56" s="22" t="s">
+      <c r="F56" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G56" s="22" t="s">
+      <c r="G56" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
     </row>
     <row r="57" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F57" s="22" t="s">
+      <c r="F57" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="G57" s="22" t="s">
+      <c r="G57" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
     </row>
     <row r="58" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F58" s="22" t="s">
+      <c r="F58" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G58" s="22" t="s">
+      <c r="G58" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
     </row>
     <row r="59" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F59" s="22" t="s">
+      <c r="F59" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G59" s="22" t="s">
+      <c r="G59" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
     </row>
     <row r="60" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F60" s="22" t="s">
+      <c r="F60" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G60" s="22" t="s">
+      <c r="G60" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
     </row>
     <row r="61" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F61" s="22" t="s">
+      <c r="F61" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="G61" s="22" t="s">
+      <c r="G61" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
     </row>
     <row r="62" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F62" s="22" t="s">
+      <c r="F62" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G62" s="22" t="s">
+      <c r="G62" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
     </row>
     <row r="63" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F63" s="22" t="s">
+      <c r="F63" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="G63" s="22" t="s">
+      <c r="G63" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
     </row>
     <row r="64" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F64" s="16" t="s">
+      <c r="F64" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G64" s="17"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
     </row>
     <row r="65" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F65" s="23" t="s">
+      <c r="F65" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G65" s="24"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
     </row>
     <row r="66" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
     </row>
     <row r="67" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F67" s="16" t="s">
+      <c r="F67" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="G67" s="17"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
     </row>
     <row r="68" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F68" s="18" t="s">
+      <c r="F68" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="G68" s="19"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
     </row>
     <row r="69" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
     </row>
     <row r="70" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
     </row>
     <row r="71" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18"/>
     </row>
     <row r="72" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="18"/>
     </row>
     <row r="73" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="15"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
     </row>
     <row r="74" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F74" s="10" t="s">
+      <c r="F74" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G74" s="11"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="15"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="18"/>
     </row>
     <row r="75" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="18"/>
     </row>
     <row r="76" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F76" s="13" t="s">
+      <c r="F76" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G76" s="14" t="s">
+      <c r="G76" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="15"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="18"/>
     </row>
     <row r="77" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F77" s="16" t="s">
+      <c r="F77" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G77" s="17"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="18"/>
     </row>
     <row r="78" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F78" s="18" t="s">
+      <c r="F78" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G78" s="19"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="15"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="18"/>
     </row>
     <row r="79" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F79" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" s="27" t="s">
+      <c r="F79" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G79" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F80" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" s="28" t="s">
+      <c r="F80" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G80" s="33" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F81" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" s="28" t="n">
-        <v>9</v>
+      <c r="F81" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G81" s="33" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F82" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" s="28" t="n">
-        <v>3</v>
+      <c r="F82" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G82" s="33" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F83" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G83" s="28" t="n">
-        <v>4</v>
+      <c r="F83" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G83" s="33" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F84" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" s="28" t="n">
-        <v>3</v>
+      <c r="F84" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G84" s="33" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F85" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" s="28" t="n">
-        <v>1</v>
+      <c r="F85" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G85" s="33" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F86" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" s="28" t="n">
-        <v>2</v>
+      <c r="F86" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G86" s="33" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F87" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G87" s="28" t="n">
-        <v>7</v>
+      <c r="F87" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G87" s="33" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F88" s="21"/>
-      <c r="G88" s="28" t="n">
-        <v>4</v>
+      <c r="F88" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G88" s="33" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F89" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G89" s="28" t="n">
-        <v>2</v>
+      <c r="F89" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G89" s="33" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E90" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F90" s="21"/>
-      <c r="G90" s="28" t="n">
-        <v>3</v>
+      <c r="F90" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="G90" s="33" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F91" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G91" s="28" t="n">
-        <v>2</v>
+      <c r="F91" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G91" s="33" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F92" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G92" s="29" t="n">
-        <v>2</v>
+      <c r="F92" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G92" s="34" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F93" s="22" t="s">
+      <c r="F93" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G93" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F94" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G94" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F95" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="G95" s="35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F96" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G96" s="20"/>
+    </row>
+    <row r="97" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F97" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G97" s="22"/>
+    </row>
+    <row r="98" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F98" s="26"/>
+      <c r="G98" s="26"/>
+    </row>
+    <row r="99" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F99" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G99" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F100" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G100" s="20"/>
+    </row>
+    <row r="101" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F101" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="22"/>
+    </row>
+    <row r="102" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F102" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="G93" s="22" t="s">
+      <c r="G102" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F103" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G103" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F104" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G104" s="33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F105" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G105" s="33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F106" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G106" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F107" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G107" s="33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F108" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G108" s="33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F109" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G109" s="33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F110" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G110" s="33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F111" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G111" s="34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F112" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G112" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F113" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G113" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F114" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="G114" s="35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F115" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G115" s="20"/>
+    </row>
+    <row r="116" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F116" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G116" s="22"/>
+    </row>
+    <row r="117" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
+    </row>
+    <row r="118" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F118" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G118" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F119" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G119" s="20"/>
+    </row>
+    <row r="120" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F120" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="22"/>
+    </row>
+    <row r="121" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F121" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G121" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F122" s="25" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F94" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G94" s="22" t="s">
+      <c r="G122" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F123" s="25" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F95" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="G95" s="30" t="s">
+      <c r="G123" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F124" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G124" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F125" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="G125" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F126" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G126" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F127" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G127" s="33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F128" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G128" s="33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F129" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G129" s="33" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F96" s="16" t="s">
+    <row r="130" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F130" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G130" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F131" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G131" s="33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F132" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G132" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F133" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G133" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F134" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="G134" s="35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F135" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G96" s="17"/>
-    </row>
-    <row r="97" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F97" s="23" t="s">
+      <c r="G135" s="20"/>
+    </row>
+    <row r="136" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F136" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G97" s="24"/>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F98" s="25"/>
-      <c r="G98" s="25"/>
-    </row>
-    <row r="99" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F99" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G99" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F100" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G100" s="17"/>
-    </row>
-    <row r="101" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F101" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="19"/>
-    </row>
-    <row r="102" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F102" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F103" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" s="28" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F104" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" s="28" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F105" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G105" s="28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F106" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G106" s="28" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F107" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G107" s="28" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F108" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G108" s="28" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F109" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G109" s="28" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F110" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G110" s="28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F111" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G111" s="29" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F112" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="G112" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F113" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G113" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F114" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="G114" s="30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F115" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G115" s="17"/>
-    </row>
-    <row r="116" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F116" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G116" s="24"/>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="118" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F118" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G118" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F119" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G119" s="17"/>
-    </row>
-    <row r="120" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F120" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="19"/>
-    </row>
-    <row r="121" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F121" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" s="27" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F122" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" s="28" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F123" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G123" s="31" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F124" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G124" s="28" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F125" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G125" s="28" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F126" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G126" s="28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F127" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G127" s="28" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F128" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G128" s="28" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F129" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G129" s="28" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F130" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G130" s="28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F131" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="G131" s="28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F132" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G132" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F133" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G133" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F134" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="G134" s="30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F135" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G135" s="17"/>
-    </row>
-    <row r="136" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F136" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G136" s="24"/>
+      <c r="G136" s="22"/>
+    </row>
+    <row r="137" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F137" s="15"/>
+      <c r="G137" s="15"/>
+    </row>
+    <row r="138" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F138" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="G138" s="29"/>
     </row>
     <row r="139" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F139" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G139" s="17"/>
-    </row>
-    <row r="140" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F140" s="18" t="s">
+      <c r="F139" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="G140" s="19"/>
-    </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F144" s="32"/>
-      <c r="G144" s="33"/>
-    </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F145" s="34"/>
-      <c r="G145" s="35"/>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F146" s="34"/>
-      <c r="G146" s="35"/>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F147" s="34"/>
-      <c r="G147" s="35"/>
-    </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F148" s="34"/>
-      <c r="G148" s="35"/>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F149" s="34"/>
-      <c r="G149" s="35"/>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F150" s="34"/>
-      <c r="G150" s="35"/>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F151" s="34"/>
-      <c r="G151" s="35"/>
-    </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F152" s="34"/>
-      <c r="G152" s="35"/>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F153" s="36"/>
-      <c r="G153" s="37"/>
-    </row>
+      <c r="G139" s="31"/>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F143" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="G143" s="37"/>
+    </row>
+    <row r="144" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F144" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="G144" s="39"/>
+    </row>
+    <row r="145" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F145" s="18"/>
+      <c r="G145" s="18"/>
+    </row>
+    <row r="146" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F146" s="18"/>
+      <c r="G146" s="18"/>
+    </row>
+    <row r="147" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F147" s="18"/>
+      <c r="G147" s="18"/>
+    </row>
+    <row r="148" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F148" s="18"/>
+      <c r="G148" s="18"/>
+    </row>
+    <row r="149" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F149" s="18"/>
+      <c r="G149" s="18"/>
+    </row>
+    <row r="150" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F150" s="18"/>
+      <c r="G150" s="18"/>
+    </row>
+    <row r="151" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F151" s="18"/>
+      <c r="G151" s="18"/>
+    </row>
+    <row r="152" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F152" s="18"/>
+      <c r="G152" s="18"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F5:G5"/>

--- a/data/Relevé.xlsx
+++ b/data/Relevé.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="82">
   <si>
     <t xml:space="preserve">Université de Poitiers</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t xml:space="preserve">Decision du jury :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-------------------</t>
   </si>
 </sst>
 </file>
@@ -272,7 +275,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -322,11 +325,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="26"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -517,7 +515,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -538,39 +536,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -578,104 +572,136 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -759,18 +785,18 @@
   </sheetPr>
   <dimension ref="D1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A113" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I143" activeCellId="0" sqref="I143:I144"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E119" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G144" activeCellId="0" sqref="G144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="152.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="25.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="27.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.64"/>
@@ -800,7 +826,7 @@
       <c r="K2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="3"/>
@@ -810,7 +836,7 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E4" s="7"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -819,18 +845,18 @@
       <c r="K4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E5" s="8"/>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="3"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E6" s="8"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
@@ -841,7 +867,7 @@
       <c r="K6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E7" s="8"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="3" t="s">
         <v>5</v>
       </c>
@@ -852,7 +878,7 @@
       <c r="K7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="10"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="4"/>
@@ -861,20 +887,20 @@
     </row>
     <row r="9" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="0"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="14"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="15"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="15"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -882,8 +908,8 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="14"/>
-      <c r="E11" s="11"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="16" t="s">
         <v>7</v>
       </c>
@@ -894,8 +920,8 @@
       <c r="I11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="14"/>
-      <c r="E12" s="11"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="19" t="s">
         <v>9</v>
       </c>
@@ -904,8 +930,8 @@
       <c r="I12" s="18"/>
     </row>
     <row r="13" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="14"/>
-      <c r="E13" s="11"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="21" t="s">
         <v>10</v>
       </c>
@@ -914,96 +940,96 @@
       <c r="I13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="14"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="23"/>
       <c r="F14" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="14"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="23"/>
       <c r="F15" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="14"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="23"/>
       <c r="F16" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
     </row>
     <row r="17" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="14"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="23"/>
       <c r="F17" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="14"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="23"/>
       <c r="F18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="25" t="s">
         <v>18</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
     </row>
     <row r="19" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="14"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="23"/>
       <c r="F19" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="25" t="s">
         <v>20</v>
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="14"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="23"/>
       <c r="F20" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="25" t="s">
         <v>18</v>
       </c>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
     </row>
     <row r="21" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="14"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="23"/>
       <c r="F21" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="25" t="s">
         <v>18</v>
       </c>
       <c r="H21" s="18"/>
@@ -1014,7 +1040,7 @@
       <c r="F22" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="25" t="s">
         <v>24</v>
       </c>
       <c r="H22" s="18"/>
@@ -1025,7 +1051,7 @@
       <c r="F23" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="25" t="s">
         <v>18</v>
       </c>
       <c r="H23" s="18"/>
@@ -1036,38 +1062,38 @@
       <c r="F24" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="25" t="s">
         <v>18</v>
       </c>
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
     </row>
     <row r="25" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E25" s="11"/>
-      <c r="F25" s="25" t="s">
+      <c r="E25" s="10"/>
+      <c r="F25" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="27" t="s">
         <v>24</v>
       </c>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
     </row>
     <row r="26" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="27" t="s">
         <v>29</v>
       </c>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
     </row>
     <row r="27" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="27" t="s">
         <v>31</v>
       </c>
       <c r="H27" s="18"/>
@@ -1086,13 +1112,13 @@
         <v>33</v>
       </c>
       <c r="G29" s="22"/>
-      <c r="H29" s="14"/>
+      <c r="H29" s="13"/>
       <c r="I29" s="18"/>
     </row>
     <row r="30" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="14"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="13"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1119,117 +1145,117 @@
       <c r="I33" s="18"/>
     </row>
     <row r="34" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F34" s="25" t="s">
+      <c r="F34" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="G34" s="27" t="s">
         <v>18</v>
       </c>
       <c r="I34" s="18"/>
     </row>
     <row r="35" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F35" s="25" t="s">
+      <c r="F35" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="G35" s="27" t="s">
         <v>24</v>
       </c>
       <c r="I35" s="18"/>
     </row>
     <row r="36" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F36" s="25" t="s">
+      <c r="F36" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="25" t="s">
+      <c r="G36" s="27" t="s">
         <v>35</v>
       </c>
       <c r="I36" s="18"/>
     </row>
     <row r="37" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F37" s="25" t="s">
+      <c r="F37" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="G37" s="25" t="s">
+      <c r="G37" s="27" t="s">
         <v>37</v>
       </c>
       <c r="H37" s="18"/>
       <c r="I37" s="18"/>
     </row>
     <row r="38" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F38" s="25" t="s">
+      <c r="F38" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G38" s="25" t="s">
+      <c r="G38" s="27" t="s">
         <v>15</v>
       </c>
       <c r="H38" s="18"/>
       <c r="I38" s="18"/>
     </row>
     <row r="39" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F39" s="25" t="s">
+      <c r="F39" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="25" t="s">
+      <c r="G39" s="27" t="s">
         <v>15</v>
       </c>
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
     </row>
     <row r="40" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F40" s="25" t="s">
+      <c r="F40" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="25" t="s">
+      <c r="G40" s="27" t="s">
         <v>24</v>
       </c>
       <c r="H40" s="18"/>
       <c r="I40" s="18"/>
     </row>
     <row r="41" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F41" s="25" t="s">
+      <c r="F41" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="G41" s="25" t="s">
+      <c r="G41" s="27" t="s">
         <v>12</v>
       </c>
       <c r="H41" s="18"/>
       <c r="I41" s="18"/>
     </row>
     <row r="42" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F42" s="25" t="s">
+      <c r="F42" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G42" s="25" t="s">
+      <c r="G42" s="27" t="s">
         <v>12</v>
       </c>
       <c r="H42" s="18"/>
       <c r="I42" s="18"/>
     </row>
     <row r="43" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F43" s="25" t="s">
+      <c r="F43" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="G43" s="25" t="s">
+      <c r="G43" s="27" t="s">
         <v>39</v>
       </c>
       <c r="H43" s="18"/>
       <c r="I43" s="18"/>
     </row>
     <row r="44" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F44" s="25" t="s">
+      <c r="F44" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="G44" s="25" t="s">
+      <c r="G44" s="27" t="s">
         <v>24</v>
       </c>
       <c r="H44" s="18"/>
       <c r="I44" s="18"/>
     </row>
     <row r="45" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F45" s="25" t="s">
+      <c r="F45" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="G45" s="25" t="s">
+      <c r="G45" s="27" t="s">
         <v>41</v>
       </c>
       <c r="H45" s="18"/>
@@ -1252,7 +1278,7 @@
       <c r="I47" s="18"/>
     </row>
     <row r="48" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F48" s="15"/>
+      <c r="F48" s="14"/>
       <c r="G48" s="15"/>
       <c r="H48" s="18"/>
       <c r="I48" s="18"/>
@@ -1284,90 +1310,90 @@
       <c r="I51" s="18"/>
     </row>
     <row r="52" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F52" s="27" t="s">
+      <c r="F52" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G52" s="25" t="s">
+      <c r="G52" s="27" t="s">
         <v>18</v>
       </c>
       <c r="H52" s="18"/>
       <c r="I52" s="18"/>
     </row>
     <row r="53" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F53" s="25" t="s">
+      <c r="F53" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="G53" s="25" t="s">
+      <c r="G53" s="27" t="s">
         <v>24</v>
       </c>
       <c r="H53" s="18"/>
       <c r="I53" s="18"/>
     </row>
     <row r="54" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F54" s="25" t="s">
+      <c r="F54" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="G54" s="25" t="s">
+      <c r="G54" s="27" t="s">
         <v>20</v>
       </c>
       <c r="H54" s="18"/>
       <c r="I54" s="18"/>
     </row>
     <row r="55" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F55" s="25" t="s">
+      <c r="F55" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="G55" s="25" t="s">
+      <c r="G55" s="27" t="s">
         <v>44</v>
       </c>
       <c r="H55" s="18"/>
       <c r="I55" s="18"/>
     </row>
     <row r="56" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F56" s="25" t="s">
+      <c r="F56" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G56" s="25" t="s">
+      <c r="G56" s="27" t="s">
         <v>15</v>
       </c>
       <c r="H56" s="18"/>
       <c r="I56" s="18"/>
     </row>
     <row r="57" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F57" s="25" t="s">
+      <c r="F57" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="G57" s="25" t="s">
+      <c r="G57" s="27" t="s">
         <v>18</v>
       </c>
       <c r="H57" s="18"/>
       <c r="I57" s="18"/>
     </row>
     <row r="58" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F58" s="25" t="s">
+      <c r="F58" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G58" s="25" t="s">
+      <c r="G58" s="27" t="s">
         <v>20</v>
       </c>
       <c r="H58" s="18"/>
       <c r="I58" s="18"/>
     </row>
     <row r="59" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F59" s="25" t="s">
+      <c r="F59" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G59" s="25" t="s">
+      <c r="G59" s="27" t="s">
         <v>20</v>
       </c>
       <c r="H59" s="18"/>
       <c r="I59" s="18"/>
     </row>
     <row r="60" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F60" s="25" t="s">
+      <c r="F60" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G60" s="25" t="s">
+      <c r="G60" s="27" t="s">
         <v>24</v>
       </c>
       <c r="H60" s="18"/>
@@ -1376,10 +1402,10 @@
       <c r="K60" s="18"/>
     </row>
     <row r="61" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F61" s="25" t="s">
+      <c r="F61" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="G61" s="25" t="s">
+      <c r="G61" s="27" t="s">
         <v>39</v>
       </c>
       <c r="H61" s="18"/>
@@ -1388,10 +1414,10 @@
       <c r="K61" s="18"/>
     </row>
     <row r="62" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F62" s="25" t="s">
+      <c r="F62" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G62" s="25" t="s">
+      <c r="G62" s="27" t="s">
         <v>12</v>
       </c>
       <c r="H62" s="18"/>
@@ -1400,10 +1426,10 @@
       <c r="K62" s="18"/>
     </row>
     <row r="63" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F63" s="25" t="s">
+      <c r="F63" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="G63" s="25" t="s">
+      <c r="G63" s="27" t="s">
         <v>48</v>
       </c>
       <c r="H63" s="18"/>
@@ -1432,7 +1458,7 @@
       <c r="K65" s="18"/>
     </row>
     <row r="66" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F66" s="15"/>
+      <c r="F66" s="14"/>
       <c r="G66" s="15"/>
       <c r="H66" s="18"/>
       <c r="I66" s="18"/>
@@ -1440,27 +1466,27 @@
       <c r="K66" s="18"/>
     </row>
     <row r="67" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F67" s="28" t="s">
+      <c r="F67" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="G67" s="29"/>
+      <c r="G67" s="32"/>
       <c r="H67" s="18"/>
       <c r="I67" s="18"/>
       <c r="J67" s="18"/>
       <c r="K67" s="18"/>
     </row>
     <row r="68" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F68" s="30" t="s">
+      <c r="F68" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="G68" s="31"/>
+      <c r="G68" s="34"/>
       <c r="H68" s="18"/>
       <c r="I68" s="18"/>
       <c r="J68" s="18"/>
       <c r="K68" s="18"/>
     </row>
     <row r="69" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F69" s="15"/>
+      <c r="F69" s="14"/>
       <c r="G69" s="15"/>
       <c r="H69" s="18"/>
       <c r="I69" s="18"/>
@@ -1468,7 +1494,7 @@
       <c r="K69" s="18"/>
     </row>
     <row r="70" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F70" s="15"/>
+      <c r="F70" s="14"/>
       <c r="G70" s="15"/>
       <c r="H70" s="18"/>
       <c r="I70" s="18"/>
@@ -1476,7 +1502,7 @@
       <c r="K70" s="18"/>
     </row>
     <row r="71" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F71" s="15"/>
+      <c r="F71" s="14"/>
       <c r="G71" s="15"/>
       <c r="H71" s="18"/>
       <c r="I71" s="18"/>
@@ -1484,7 +1510,7 @@
       <c r="K71" s="18"/>
     </row>
     <row r="72" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F72" s="15"/>
+      <c r="F72" s="14"/>
       <c r="G72" s="15"/>
       <c r="H72" s="18"/>
       <c r="I72" s="18"/>
@@ -1492,26 +1518,26 @@
       <c r="K72" s="18"/>
     </row>
     <row r="73" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="29"/>
       <c r="H73" s="18"/>
       <c r="I73" s="18"/>
       <c r="J73" s="18"/>
       <c r="K73" s="18"/>
     </row>
     <row r="74" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F74" s="12" t="s">
+      <c r="F74" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G74" s="13"/>
+      <c r="G74" s="35"/>
       <c r="H74" s="18"/>
       <c r="I74" s="18"/>
       <c r="J74" s="18"/>
       <c r="K74" s="18"/>
     </row>
     <row r="75" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F75" s="26"/>
-      <c r="G75" s="26"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="29"/>
       <c r="H75" s="18"/>
       <c r="I75" s="18"/>
       <c r="J75" s="18"/>
@@ -1553,7 +1579,7 @@
       <c r="F79" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="G79" s="32" t="s">
+      <c r="G79" s="36" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1561,7 +1587,7 @@
       <c r="F80" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="G80" s="33" t="s">
+      <c r="G80" s="37" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1569,7 +1595,7 @@
       <c r="F81" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G81" s="33" t="s">
+      <c r="G81" s="37" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1577,7 +1603,7 @@
       <c r="F82" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="G82" s="33" t="s">
+      <c r="G82" s="37" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1585,7 +1611,7 @@
       <c r="F83" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="G83" s="33" t="s">
+      <c r="G83" s="37" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1593,7 +1619,7 @@
       <c r="F84" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="G84" s="33" t="s">
+      <c r="G84" s="37" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1601,7 +1627,7 @@
       <c r="F85" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="G85" s="33" t="s">
+      <c r="G85" s="37" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1609,7 +1635,7 @@
       <c r="F86" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="G86" s="33" t="s">
+      <c r="G86" s="37" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1617,7 +1643,7 @@
       <c r="F87" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="G87" s="33" t="s">
+      <c r="G87" s="37" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1625,7 +1651,7 @@
       <c r="F88" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="G88" s="33" t="s">
+      <c r="G88" s="37" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1633,7 +1659,7 @@
       <c r="F89" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="G89" s="33" t="s">
+      <c r="G89" s="37" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1644,7 +1670,7 @@
       <c r="F90" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="G90" s="33" t="s">
+      <c r="G90" s="37" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1652,39 +1678,39 @@
       <c r="F91" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G91" s="33" t="s">
+      <c r="G91" s="37" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F92" s="25" t="s">
+      <c r="F92" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="G92" s="34" t="s">
+      <c r="G92" s="38" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F93" s="25" t="s">
+      <c r="F93" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="G93" s="25" t="s">
+      <c r="G93" s="27" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F94" s="25" t="s">
+      <c r="F94" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="G94" s="25" t="s">
+      <c r="G94" s="27" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F95" s="35" t="s">
+      <c r="F95" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="G95" s="35" t="s">
+      <c r="G95" s="40" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1701,8 +1727,8 @@
       <c r="G97" s="22"/>
     </row>
     <row r="98" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F98" s="26"/>
-      <c r="G98" s="26"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="29"/>
     </row>
     <row r="99" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F99" s="16" t="s">
@@ -1725,106 +1751,106 @@
       <c r="G101" s="22"/>
     </row>
     <row r="102" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F102" s="25" t="s">
+      <c r="F102" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="G102" s="32" t="s">
+      <c r="G102" s="36" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F103" s="25" t="s">
+      <c r="F103" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="G103" s="33" t="s">
+      <c r="G103" s="37" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F104" s="25" t="s">
+      <c r="F104" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="G104" s="33" t="s">
+      <c r="G104" s="37" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F105" s="25" t="s">
+      <c r="F105" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G105" s="33" t="s">
+      <c r="G105" s="37" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F106" s="25" t="s">
+      <c r="F106" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="G106" s="33" t="s">
+      <c r="G106" s="37" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F107" s="25" t="s">
+      <c r="F107" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="G107" s="33" t="s">
+      <c r="G107" s="37" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F108" s="25" t="s">
+      <c r="F108" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="G108" s="33" t="s">
+      <c r="G108" s="37" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F109" s="25" t="s">
+      <c r="F109" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="G109" s="33" t="s">
+      <c r="G109" s="37" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F110" s="25" t="s">
+      <c r="F110" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="G110" s="33" t="s">
+      <c r="G110" s="37" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F111" s="25" t="s">
+      <c r="F111" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="G111" s="34" t="s">
+      <c r="G111" s="38" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F112" s="25" t="s">
+      <c r="F112" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G112" s="25" t="s">
+      <c r="G112" s="27" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F113" s="25" t="s">
+      <c r="F113" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="G113" s="25" t="s">
+      <c r="G113" s="27" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F114" s="35" t="s">
+      <c r="F114" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="G114" s="35" t="s">
+      <c r="G114" s="40" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1841,7 +1867,7 @@
       <c r="G116" s="22"/>
     </row>
     <row r="117" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F117" s="15"/>
+      <c r="F117" s="14"/>
       <c r="G117" s="15"/>
     </row>
     <row r="118" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1865,114 +1891,114 @@
       <c r="G120" s="22"/>
     </row>
     <row r="121" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F121" s="27" t="s">
+      <c r="F121" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="G121" s="32" t="s">
+      <c r="G121" s="36" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F122" s="25" t="s">
+      <c r="F122" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="G122" s="33" t="s">
+      <c r="G122" s="37" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F123" s="25" t="s">
+      <c r="F123" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="G123" s="25" t="s">
+      <c r="G123" s="27" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F124" s="25" t="s">
+      <c r="F124" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G124" s="33" t="s">
+      <c r="G124" s="37" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F125" s="25" t="s">
+      <c r="F125" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="G125" s="33" t="s">
+      <c r="G125" s="37" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F126" s="25" t="s">
+      <c r="F126" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="G126" s="33" t="s">
+      <c r="G126" s="37" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F127" s="25" t="s">
+      <c r="F127" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="G127" s="33" t="s">
+      <c r="G127" s="37" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F128" s="25" t="s">
+      <c r="F128" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="G128" s="33" t="s">
+      <c r="G128" s="37" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F129" s="25" t="s">
+      <c r="F129" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="G129" s="33" t="s">
+      <c r="G129" s="37" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F130" s="25" t="s">
+      <c r="F130" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="G130" s="33" t="s">
+      <c r="G130" s="37" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F131" s="25" t="s">
+      <c r="F131" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="G131" s="33" t="s">
+      <c r="G131" s="37" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F132" s="25" t="s">
+      <c r="F132" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="G132" s="25" t="s">
+      <c r="G132" s="27" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F133" s="25" t="s">
+      <c r="F133" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="G133" s="25" t="s">
+      <c r="G133" s="27" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F134" s="35" t="s">
+      <c r="F134" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="G134" s="35" t="s">
+      <c r="G134" s="40" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1989,65 +2015,144 @@
       <c r="G136" s="22"/>
     </row>
     <row r="137" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F137" s="15"/>
+      <c r="F137" s="14"/>
       <c r="G137" s="15"/>
     </row>
     <row r="138" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F138" s="28" t="s">
+      <c r="F138" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="G138" s="29"/>
+      <c r="G138" s="32"/>
     </row>
     <row r="139" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F139" s="30" t="s">
+      <c r="F139" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="G139" s="31"/>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="G139" s="34"/>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G140" s="41"/>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G141" s="41"/>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G142" s="41"/>
+    </row>
     <row r="143" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F143" s="36" t="s">
+      <c r="F143" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="G143" s="37"/>
+      <c r="G143" s="43"/>
     </row>
     <row r="144" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F144" s="38" t="s">
+      <c r="F144" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="G144" s="39"/>
+      <c r="G144" s="45" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F145" s="18"/>
-      <c r="G145" s="18"/>
+      <c r="G145" s="46"/>
     </row>
     <row r="146" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F146" s="18"/>
-      <c r="G146" s="18"/>
+      <c r="G146" s="46"/>
     </row>
     <row r="147" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F147" s="18"/>
-      <c r="G147" s="18"/>
+      <c r="G147" s="46"/>
     </row>
     <row r="148" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F148" s="18"/>
-      <c r="G148" s="18"/>
+      <c r="G148" s="46"/>
     </row>
     <row r="149" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F149" s="18"/>
-      <c r="G149" s="18"/>
+      <c r="G149" s="46"/>
     </row>
     <row r="150" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F150" s="18"/>
-      <c r="G150" s="18"/>
+      <c r="G150" s="46"/>
     </row>
     <row r="151" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F151" s="18"/>
-      <c r="G151" s="18"/>
+      <c r="G151" s="46"/>
     </row>
     <row r="152" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F152" s="18"/>
-      <c r="G152" s="18"/>
+      <c r="G152" s="46"/>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G153" s="41"/>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G154" s="41"/>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G155" s="41"/>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G156" s="41"/>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G157" s="41"/>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G158" s="41"/>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G159" s="41"/>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G160" s="41"/>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G161" s="41"/>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G162" s="41"/>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G163" s="41"/>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G164" s="41"/>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G165" s="41"/>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G166" s="41"/>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G167" s="41"/>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G168" s="41"/>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G169" s="41"/>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G170" s="41"/>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G171" s="41"/>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G172" s="41"/>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G173" s="41"/>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G174" s="41"/>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G175" s="41"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/data/Relevé.xlsx
+++ b/data/Relevé.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="81">
   <si>
     <t xml:space="preserve">Université de Poitiers</t>
   </si>
@@ -262,10 +262,7 @@
     <t xml:space="preserve">Moyenne générale :</t>
   </si>
   <si>
-    <t xml:space="preserve">Decision du jury :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-------------------</t>
+    <t xml:space="preserve">Décision du jury : -----------------------</t>
   </si>
 </sst>
 </file>
@@ -391,7 +388,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -483,6 +480,13 @@
       <bottom style="medium"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -692,7 +696,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -786,10 +790,10 @@
   <dimension ref="D1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E119" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G144" activeCellId="0" sqref="G144"/>
+      <selection pane="topLeft" activeCell="G145" activeCellId="0" sqref="G145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.37"/>
@@ -2049,9 +2053,7 @@
       <c r="F144" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="G144" s="45" t="s">
-        <v>81</v>
-      </c>
+      <c r="G144" s="45"/>
     </row>
     <row r="145" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F145" s="18"/>
